--- a/Doble Rendija/Datos-Láser-una rendija_01.xlsx
+++ b/Doble Rendija/Datos-Láser-una rendija_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laboratorio Intermedio\Experimentos\Doble Rendija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programación\Lab Intermedio\Doble rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFFC8E21-FFE3-4B4D-ADA2-DA74F7D8EC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F0D0A2-4EC3-4906-8204-E71C50209293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682B99DF-E23E-411D-B9D6-AB49EBD71731}"/>
+    <workbookView minimized="1" xWindow="5310" yWindow="8190" windowWidth="7500" windowHeight="6000" xr2:uid="{682B99DF-E23E-411D-B9D6-AB49EBD71731}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -391,7 +402,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,20 +993,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="25ac7f3b-e7ce-49fd-a987-fa8976d97dfb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="25ac7f3b-e7ce-49fd-a987-fa8976d97dfb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,14 +1029,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{421381F3-F13F-4901-8ADD-0BC246AFC38C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574AC1EC-A7DC-49B2-9F40-062F040B4C38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1040,4 +1043,12 @@
     <ds:schemaRef ds:uri="25ac7f3b-e7ce-49fd-a987-fa8976d97dfb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{421381F3-F13F-4901-8ADD-0BC246AFC38C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>